--- a/results/5Fold_gbmlgg.xlsx
+++ b/results/5Fold_gbmlgg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,7 +503,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>deepcdf</t>
+          <t>ordsurv</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -524,7 +524,7 @@
         <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6925115541860358</v>
+        <v>0.692511554186036</v>
       </c>
       <c r="I2" t="n">
         <v>0.6979286933722866</v>
@@ -581,6 +581,138 @@
       </c>
       <c r="L3" t="n">
         <v>1.049867888945598</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>gbmlgg</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>discrete</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>vit</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>50</v>
+      </c>
+      <c r="F4" t="n">
+        <v>42</v>
+      </c>
+      <c r="G4" t="n">
+        <v>25</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.594354770735965</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.6104358221396562</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.6185053370615436</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.2219907981970737</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.857497130891862</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>gbmlgg</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ordsurv</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>resnet18</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F5" t="n">
+        <v>42</v>
+      </c>
+      <c r="G5" t="n">
+        <v>25</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.7029741135197629</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.7105476187185999</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.7332799396474667</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.2253182631279418</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.3376040935516357</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>gbmlgg</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>deepsurv</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>resnet18</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>50</v>
+      </c>
+      <c r="F6" t="n">
+        <v>42</v>
+      </c>
+      <c r="G6" t="n">
+        <v>25</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.7307685420923158</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.7317911332053587</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4.383358979225159</v>
       </c>
     </row>
   </sheetData>

--- a/results/5Fold_gbmlgg.xlsx
+++ b/results/5Fold_gbmlgg.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ordsurv</t>
+          <t>deepsurv</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -656,19 +656,19 @@
         <v>25</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7029741135197629</v>
+        <v>0.7307685420923158</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7105476187185999</v>
+        <v>0.7317911332053587</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7332799396474667</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2253182631279418</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3376040935516357</v>
+        <v>4.383358979225159</v>
       </c>
     </row>
     <row r="6">
@@ -679,7 +679,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>deepsurv</t>
+          <t>ordsurv</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -700,19 +700,19 @@
         <v>25</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7307685420923158</v>
+        <v>0.7114919776603452</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7317911332053587</v>
+        <v>0.7093633096586331</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7429955425837813</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>0.2213415079830005</v>
       </c>
       <c r="L6" t="n">
-        <v>4.383358979225159</v>
+        <v>0.3483688026666641</v>
       </c>
     </row>
   </sheetData>
